--- a/Data Collection/Authors/Katja Rost/articles_Rost_Jan_2.xlsx
+++ b/Data Collection/Authors/Katja Rost/articles_Rost_Jan_2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\OneDrive\Dokumente\COINS_SwissTribeleaders\Data Collection\Authors\Katja Rost\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C54D219-724F-4647-B6E8-298EF3B93944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="177">
   <si>
     <t>title</t>
   </si>
@@ -25,18 +31,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -76,21 +76,6 @@
     <t>Hamburger Abendblatt</t>
   </si>
   <si>
-    <t>31 Jan 2021</t>
-  </si>
-  <si>
-    <t>26 Jan 2021</t>
-  </si>
-  <si>
-    <t>16 Jan 2021</t>
-  </si>
-  <si>
-    <t>18 Jan 2021</t>
-  </si>
-  <si>
-    <t>27 Jan 2021</t>
-  </si>
-  <si>
     <t>In Holland brennen nachts die Strassen, in der Schweiz werden Ultrareiche mit dem Flugzeug für eine Impfung eingeflogen. Die Soziologin Katja Rost sagt, was ...</t>
   </si>
   <si>
@@ -125,9 +110,6 @@
   </si>
   <si>
     <t>https://www.abendblatt.de/region/pinneberg/article231414529/Ausbau-der-A-23-Der-Widerstand-wird-immer-groesser.html</t>
-  </si>
-  <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
   </si>
   <si>
     <t>Sie verlieren langsam die Hoffnung und die sehen die Notwenigkeit der Massnahmen immer weniger, fühlen sich bevormundet und eingeschränkt.
@@ -170,12 +152,548 @@
 Wohnbebauung nah der Trasse ist ein ProblemDavon scheinen die Ausbaupläne für die A 23 weit entfernt.
 In Orten, die nah an der A 23 lägen, seien die Politiker gegen den Ausbau, in den übrigen eher dafür, sofern der Lärm- und Naturschutz weitgehend eingehalten würde und die Gewerbetreibenden nicht tangiert würden.</t>
   </si>
+  <si>
+    <t>Interview - Soziologin über soziale Erwartungen in der Pandemie: «Es reicht, wenn jemand böse schaut»</t>
+  </si>
+  <si>
+    <t>Katja Rost ist Soziologin am soziologischen Institut der Universität Zürich. John Flury. Die Wissenschaft rät, die Politik entscheidet. Doch ob die Bevölkerung die ...</t>
+  </si>
+  <si>
+    <t>https://www.aargauerzeitung.ch/leben/interview-zuercher-soziologin-ueber-soziale-erwuenschtheit-in-der-pandemie-es-reicht-wenn-jemand-boese-schaut-ld.2094004</t>
+  </si>
+  <si>
+    <t>Interview Soziologin über soziale Erwartungen in der Pandemie: «Es reicht, wenn jemand böse schaut» Die Politik müsse uns in der Krise nun entgegenkommen, sagt Soziologin Katja Rost.
+Und erklärt, wie der Staat Verhalten kontrolliert.
+Exklusiv für AbonnentenKatja Rost ist Soziologin am soziologischen Institut der Universität Zürich.
+John FluryDie Wissenschaft rät, die Politik entscheidet.
+Die Soziologin Katja Rost weiss, wie wir funktionieren, und erklärt, warum für die Pandemiebewältigung eine zentrale Instanz genauso wichtig ist wie kontroverse Diskussionen.</t>
+  </si>
+  <si>
+    <t>Corona-Petition: Über 140’000 wollen den Lockdown beenden</t>
+  </si>
+  <si>
+    <t>20 Minuten</t>
+  </si>
+  <si>
+    <t>Katja Rost, Professorin für Soziologie an der Universität Zürich, kann die wachsende Empörung über die geltenden Corona-Massnahmen nachvollziehen.</t>
+  </si>
+  <si>
+    <t>https://www.20min.ch/story/ueber-140000-wollen-den-lockdown-beenden-560293425229</t>
+  </si>
+  <si>
+    <t>20min / Marco Zangger Nun haben Zehntausende in den letzten Wochen eine Online-Petition unterschrieben, die ein Ende des Corona-Lockdowns fordert.
+Adrian Moser / Tamedia Der Unmut über die Corona-Massnahmen ist gross: In einer nicht-repräsentativen Umfrage fordern 65 Prozent der 20-Minuten-Leserschaft ein Ende des Lockdowns per 1.
+20 MinutenDarum gehts Zehntausende haben in den letzten Wochen eine Online-Petition unterschrieben, die ein Ende des Corona-Lockdowns fordert.
+Auch der Ruf des Schweizerischen Gewerbeverbands SGV nach einem Ende der Lockdown-Massnahmen findet viel Zuspruch: Über 140’000 Personen (Stand 9.2.2021) haben eine Petition unterschrieben, die ein Ende des Lockdowns fordert.
+Kopf hinter der Unterschriftensammlung ist der 27-jährige Leroy Bächtold, Vorstand der Jungfreisinnigen Stadt Zürich.</t>
+  </si>
+  <si>
+    <t>Tief gefallen - Der Fall Britney Spears: Wie ein perverses Medien- und Justizsystem einen Weltstar zerstörte</t>
+  </si>
+  <si>
+    <t>St. Galler Tagblatt</t>
+  </si>
+  <si>
+    <t>«Das ist aber ein Nullsummenspiel», sagt Katja Rost, Professorin für Soziologie an der Universität Zürich. Was heisst: Hebe ich jemanden auf einen Thron, gebe ...</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/leben/tief-gefallen-der-fall-britney-spears-wie-ein-perverses-medien-und-justizsystem-einen-weltstar-zerstoerte-ld.2101453</t>
+  </si>
+  <si>
+    <t>Tief gefallen Der Fall Britney Spears: Wie ein perverses Medien- und Justizsystem einen Weltstar zerstörte Imago Zuerst gefeiert, dann tief gefallen: Seit zwölf Jahren steht Britney Spears unter der Vormundschaft ihres Vaters.
+Sie heisst «Framing Britney Spears» und geht der Frage nach, warum Spears heute steht, wo sie steht: Nämlich unter Vormundschaft ihres eigenen Vaters, seit zwölf Jahren.
+«Für viele ist Britney Spears kein Mensch, sondern eine abstrakte Kunstfigur», sagt Rost.
+Gleichsam verdienten alle anderen Betei­ligten an ihrem Erfolg: die Medien, die Familie, die Paparazzi, die Fans, die Unternehmen.
+Fans und Wegbegleiter entschuldigen sich nun öffentlich dafür, was Britney Spears, durch den Fleischwolf einer Medien- und Musikindustrie gedreht, angetan wurde.</t>
+  </si>
+  <si>
+    <t>Firmenmodell - Das grosse Experiment: Nach dieser Idee wird der Weltkonzern ABB umgebaut</t>
+  </si>
+  <si>
+    <t>Luzerner Zeitung</t>
+  </si>
+  <si>
+    <t>Wirtschaftssoziologin Katja Rost zur Dezentralisierungsidee: «Es ist ein Trend, der abhängig ist von Mode und Zeitgeist.» John Flury. Es gebe immer wieder mal ...</t>
+  </si>
+  <si>
+    <t>https://www.luzernerzeitung.ch/wirtschaft/firmenmodell-das-grosse-experiment-nach-dieser-idee-wird-der-weltkonzern-abb-umgebaut-ld.2094190</t>
+  </si>
+  <si>
+    <t>Firmenmodell Das grosse Experiment: Nach dieser Idee wird der Weltkonzern ABB umgebaut ABB-Chef Björn Rosengren schwört auf Dezentralisierung.
+Die Verantwortung wird von der Zentrale wegdelegiert zu den Divisionen, die sich möglichst eigenständig bewegen sollen.
+Ein Beispiel ist der Bauchemiekonzern Sika, der diese Idee seit den 1930er-Jahren nachlebt.
+Musterbeispiel eines dezentralisierten Konzerns: Sika Jean-Christophe Bott / KEYSTONEEin anderes Erfolgsbeispiel ist der Bauchemiekonzern Sika, auch er mit einer imposanten Aktienkursentwicklung.
+Bei ABB verspricht sich der Analyst der Bank Vontobel neuen Schwung von der Dezentralisierung.</t>
+  </si>
+  <si>
+    <t>Wenn sie Schnee schaufelt: «Als Mann würde ich mich schämen»</t>
+  </si>
+  <si>
+    <t>Muss eine emanzipierte Frau nun selber Schnee schaufeln, oder ist das immer noch Aufgabe ihres galanten Mannes? Katja Rost, Professorin für Soziologie an ...</t>
+  </si>
+  <si>
+    <t>https://www.20min.ch/story/als-mann-wuerde-ich-mich-schaemen-835977675860</t>
+  </si>
+  <si>
+    <t>Wenn sie Schnee schaufelt : «Als Mann würde ich mich schämen»Die Frau schaufelt das Auto frei, der Mann schaut zu.
+Justyna SpiessDarum gehts Eine Frau schaufelt das Auto frei, während der Mann daneben steht und zuschaut.
+Sie fand das derart unterhaltsam, dass sie es für ihr TikTok-Profil festhielt – mit dem Kommentar «So geht Emanzipation!» und drei Smileys.
+Andererseits heisse das aber nicht, dass sie als Frau nun alles alleine machen müsse, nur weil sie die nötige Muskelkraft aufbringe.
+Emanzipation bedeute sicherlich nicht, dass nun die Frau alles alleine machen müsse.</t>
+  </si>
+  <si>
+    <t>Führungskräfte per Los bestimmen? Das ist schlauer, als es ...</t>
+  </si>
+  <si>
+    <t>T3N</t>
+  </si>
+  <si>
+    <t>Vorauswahl und Losen: Sorgt für Bescheidenheit. Die Studie von Margit Osterloh, Bruno S. Frey und Katja Rost zeigte, dass sich Frauen keineswegs immer ...</t>
+  </si>
+  <si>
+    <t>https://t3n.de/news/fuehrungskraefte-los-bestimmen-1355181/</t>
+  </si>
+  <si>
+    <t>Das haben wir so verinnerlicht und es ist im Prinzip richtig – aber nur ein Teil der Rechnung.
+Denn noch immer geht es im Geschäftsleben nicht so gerecht zu, wie man sich das erhofft.
+Probanden, die im Leistungstest zu Überschätzung neigten, missbrauchten deutlich häufiger die ihnen übertragene Macht und die Zufallswahl verhinderte dies dagegen weitgehend.
+Das Begrenzen von Seilschaften innerhalb von Professorendynastien war übrigens auch der Grund, warum schon im 18.
+Dass der Vorschlag aber weniger irritierend ist, als es auf den ersten Blick scheint, liegt jedenfalls auf der Hand.</t>
+  </si>
+  <si>
+    <t>Ausflügler trotz sonnigem Winterwetter in Thüringen zurückhaltend - Glatteis droht</t>
+  </si>
+  <si>
+    <t>Thüringische Landeszeitung</t>
+  </si>
+  <si>
+    <t>Schieferpark bei Lehesten Foto: Katja Neubauer. Ein Schneeherz ... Bergfried-Klinik Saalfeld Foto: Steffi Rost ... Schieferpark bei Lehesten Foto: Katja Neubauer.</t>
+  </si>
+  <si>
+    <t>https://www.tlz.de/leben/wetter/thueringen/ausfluegler-trotz-sonnigem-winterwetter-in-thueringen-zurueckhaltend-gefaehrliches-glatteis-droht-id231566739.html</t>
+  </si>
+  <si>
+    <t>Leser schicken uns ihre Fotos von einem Traumwinter Leser schicken uns ihre Fotos von einem Traumwinter Schieferpark bei Lehesten Foto: Katja NeubauerLeser schicken uns ihre Fotos von einem Traumwinter Ein Schneeherz am Stausee Foto: Linda SchlösserLeser schicken uns ihre Fotos von einem Traumwinter Unterhain bei Königsee Foto: Karolin VoigtLeser schicken uns ihre Fotos von einem Traumwinter Fröbelturm bei Oberweißbach Foto: Helga BornLeser schicken uns ihre Fotos von einem Traumwinter Schlosspark Saalfeld Foto: Robin WagnerLeser schicken uns ihre Fotos von einem Traumwinter Funkmast bei Schmiedefeld Foto: Torsten MüllerLeser schicken uns ihre Fotos von einem Traumwinter Schallhaus an der Heidecksburg, Rudolstadt.
+Foto: Olaf SelmikatLeser schicken uns ihre Fotos von einem Traumwinter Innenhof der Thüringen-Kliniken in Saalfeld Foto: Thüringen-KlinikenLeser schicken uns ihre Fotos von einem Traumwinter Traumwinter im Landkreis Saalfeld-Rudolstadt.
+Foto: Kay RöslerLeser schicken uns ihre Fotos von einem Traumwinter Bergfried-Klinik Saalfeld Foto: Steffi RostLeser schicken uns ihre Fotos von einem Traumwinter Kloster Paulinzella.
+Foto: Toni SäuberlichLeser schicken uns ihre Fotos von einem Traumwinter Windmühle in Dittrichshütte-Braunsdorf Foto: Matze EdlerLeser schicken uns ihre Fotos von einem Traumwinter Winter im Kreis Saalfeld-Rudolstadt.
+Manche Orte präparierten zwar Loipen und Rodelhänge für Tagestouristen, die die Hänge dann hoch liefen, statt den Lift zu nutzen.</t>
+  </si>
+  <si>
+    <t>Tauwetter in Thüringen: Milde Temperaturen bis zu sieben Grad erwartet</t>
+  </si>
+  <si>
+    <t>Thüringer Allgemeine</t>
+  </si>
+  <si>
+    <t>https://www.thueringer-allgemeine.de/leben/wetter/tauwetter-in-thueringen-milde-temperaturen-bis-zu-sieben-grad-erwartet-id231577975.html</t>
+  </si>
+  <si>
+    <t>Die beste Schmorpfanne: So gelingen leckere Schmorgerichte</t>
+  </si>
+  <si>
+    <t>T-Online</t>
+  </si>
+  <si>
+    <t>Von Katja Schmidt. 18.02.2021, 08:20 Uhr. Die beste Schmorpfanne: So gelingen leckere Schmorgerichte. Mit den besten Schmorpfannen gelingen leckere ...</t>
+  </si>
+  <si>
+    <t>https://www.t-online.de/ratgeber/id_89476892/die-beste-schmorpfanne-so-gelingen-leckere-schmorgerichte.html</t>
+  </si>
+  <si>
+    <t>Wir stellen empfehlenswerte Modelle vor und erklären, wie Sie die beste Schmorpfanne für Ihre Bedürfnisse finden.
+Von Vorteil sind bei der Zubereitung der typische Thermospot von Tefal, der die optimale Brattemperatur anzeigt.
+Ebenfalls vorteilhaft ist der Boden der Schmorpfanne, der für eine optimale Hitzeverteilung und Stabilität sorgt.
+Dafür sorgt auch die Antihaftbeschichtung, die es zudem ermöglicht, fettarm zu kochen und die Pfanne einfach zu reinigen.
+Allerdings sind sie weniger leicht zu pflegen und zu handhaben, da sie sehr schwer und empfindlich sind.</t>
+  </si>
+  <si>
+    <t>Wetterdienst warnt Menschen in diesen Gebieten vor Glatteis</t>
+  </si>
+  <si>
+    <t>https://www.thueringer-allgemeine.de/leben/wetter/die-neue-woche-beginnt-in-thueringen-frostig-und-mit-glatteisgefahr-id231568563.html</t>
+  </si>
+  <si>
+    <t>Wetterdienst warnt Menschen in diesen Gebieten vor GlatteisErfurt.
+Auto- und Bahnfahrer sollten sich in weiten Teilen Thüringens am Montagabend auf Verkehrsbehinderungen einstellen: Der Deutsche Wetterdienst in Leipzig hatte am Montagabend für mehrere Landkreise und Städte vor Glatteisbildung gewarnt.
+Demnach gilt dabei die höchste von drei Glatteis-Warnstufe mit verbreiteter Glatteisbildung am Boden oder an Gegenständen und verbreitetem Auftreten von überfrierender Nässe.
+In einigen Orten im Norden Thüringens hatte die Woche in der Nacht auf Montag mit eisigen Temperaturtiefs um die minus 20 Grad begonnen.
+Gegen Abend ging der Schneefall stellenweise in Regen über und sorgte auf den kalten Straßen und schneebedeckten Gehwegen für gefährliches Glatteis, so der DWD.</t>
+  </si>
+  <si>
+    <t>Marathon in Bonn in den Herbst verlegt - Meldungen - Marathon</t>
+  </si>
+  <si>
+    <t>Marathon4you.de</t>
+  </si>
+  <si>
+    <t>Ich danke allen Beteiligten für ihr Engagement, ein sicheres und spannendes Event auf die Beine zu stellen“, sagt Oberbürgermeisterin Katja Dörner. Um die ...</t>
+  </si>
+  <si>
+    <t>https://www.marathon4you.de/meldungen/deutsche-post-marathon-bonn/marathon-in-bonn-in-den-herbst-verlegt/8234</t>
+  </si>
+  <si>
+    <t>Quelle: PressemitteilungDeutsche Post Marathon Bonn findet dieses Jahr im Herbst statt - Neuer Termin ist der 17.
+Oktober 2021 – Anmeldungen ab sofort möglichDer Deutsche Post Marathon Bonn findet aufgrund der aktuellen Situation dieses Jahr im Herbst und nicht wie traditionell im April statt.
+Anmeldungen für den Deutsche Post Marathon Bonn im Herbst 2021 sind ab sofort zum Frühbucherpreis unter www.deutschepost-marathonbonn.de möglich.
+Oktober zu überbrücken, haben sich die Veranstalter und die Deutsche Post zudem etwas Besonderes überlegt: Da die Läuferinnen und Läufer im April nicht zum Deutsche Post Marathon Bonn kommen können, wird sich der Marathon auf Tournee begeben und Station in Bonn und der Region machen.
+Alle Informationen zum Deutsche Post Marathon Bonn unter:www.deutschepost-marathonbonn.de</t>
+  </si>
+  <si>
+    <t>Leser schicken uns ihre Fotos von einem Traumwinter</t>
+  </si>
+  <si>
+    <t>Schieferpark bei Lehesten Foto: Katja Neubauer. Ein Schneeherz am Stausee ... ihre Fotos von einem Traumwinter. Bergfried-Klinik Saalfeld Foto: Steffi Rost.</t>
+  </si>
+  <si>
+    <t>https://www.otz.de/regionen/saalfeld/leser-schicken-uns-ihre-fotos-von-einem-traumwinter-id231562325.html</t>
+  </si>
+  <si>
+    <t>Leser schicken uns ihre Fotos von einem TraumwinterWeitblick von Großgeschwenda mit Kirchturm über den Winterwald zum Rennsteig bei Neuhaus.
+Am Horizont zu sehen ist das Oberbecken vom PSW Goldisthal, das Luftlinie etwa 30 Kilometer entfernt ist.
+Foto: Reiner Schlegel</t>
+  </si>
+  <si>
+    <t>Bundesgericht zu Unterhalt – Emanzipation der Frau – auf Kosten der Hausfrau?</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>Katja Rost, Soziologieprofessorin an der Universität Zürich, beobachtet, dass Frauen in der Schweiz kaum noch Vollzeit zu Hause bleiben. Von gleichberechtigter ...</t>
+  </si>
+  <si>
+    <t>https://www.srf.ch/news/international/bundesgericht-zu-unterhalt-emanzipation-der-frau-auf-kosten-der-hausfrau</t>
+  </si>
+  <si>
+    <t>Umfassende Unterhaltszahlungen an die Ex-Partnerinnen und -Partner sollen die Ausnahme darstellen, etwa bei der Betreuung von Kleinkindern.
+Katja Rost, Soziologieprofessorin an der Universität Zürich, beobachtet, dass Frauen in der Schweiz kaum noch Vollzeit zu Hause bleiben.
+Entsprechend schwierig gestaltet sich die Jobsuche nach der Scheidung, mancher Frau droht die Altersarmut.
+In solchen Situationen hat die bisherige Praxis der Unterhaltszahlungen die Frauen geschützt.
+Elf Prozent aller Frauen und 18 Prozent aller Mütter wollen mehr arbeiten.</t>
+  </si>
+  <si>
+    <t>Neue Talente von Graphen: Durchstimmbare ...</t>
+  </si>
+  <si>
+    <t>Chemie.de</t>
+  </si>
+  <si>
+    <t>Katja Höflich, Gastforscherin am HZB und Gruppenleiterin am Ferdinand-Braun-Institut Berlin. Durchstimmbar von 50 MHz bis 217 MHz. Jan N. Kirchhof, Erstautor ...</t>
+  </si>
+  <si>
+    <t>https://www.chemie.de/news/1170060/neue-talente-von-graphen-durchstimmbare-gitterschwingungen.html</t>
+  </si>
+  <si>
+    <t>Die Elektronenmikroskopie zeigt die Graphenprobe (grau), in der der Heliumstrahl ein Lochmuster erzeugt hat, so dass die Dichte periodisch variiert.
+Dadurch kommt es zur Überlagerung von Schwingungsmoden und es öffnet sich eine mechanische Bandlücke.
+Ohne Elektronik und Photonik gäbe es keine Computer, Smartphones, Sensoren und die Informations- und Kommunikationstechnologien wären nicht entstanden.
+Diese Bandlücke kann genutzt werden, um einzelne Moden zu lokalisieren und von der Umgebung abzuschirmen.
+Wir erwarten, dass wir einige grundlegende physikalische Erkenntnisse gewinnen und Technologien entwickeln, die zu Anwendungen z.B.</t>
+  </si>
+  <si>
+    <t>Marko Bosse und Thomas Lange: Schweriner Jungs erobern die Grill-Szene | svz.de</t>
+  </si>
+  <si>
+    <t>SVZ</t>
+  </si>
+  <si>
+    <t>Marko Bosse und Thomas Lange gründen ihre eigene Marke für bessere Ergebnisse am Rost und auf dem Teller. Error loading configuration file. von Katja ...</t>
+  </si>
+  <si>
+    <t>https://www.svz.de/lokales/zeitung-fuer-die-landeshauptstadt/Schweriner-gruenen-Grill-id31466227.html</t>
+  </si>
+  <si>
+    <t>Marko Bosse und Thomas Lange gründen ihre eigene Marke für bessere Ergebnisse am Rost und auf dem Teller.
+Schwerin | Manche tun es im Garten.
+Einen kleinen Anteil an dieser Zahl haben auch Marko Bosse und Thomas Lange.
+Und beide haben eine Vorliebe...Schließen Sie jetzt den kostenfreien Probemonat ab (anschließend 7,90 €/Monat), um diesen Artikel zu lesen.
+Alle weiteren Inhalte auf unserer Webseite und in unserer App stehen Ihnen dann ebenfalls zur Verfügung.</t>
+  </si>
+  <si>
+    <t>Podcast: Chefin oder Chef per Los – ist das fair?</t>
+  </si>
+  <si>
+    <t>Handelszeitung</t>
+  </si>
+  <si>
+    <t>Für Katja Rost sind Auswahlverfahren nach dem Würfelprinzip daher eine Alternative zu Quoten. Die Podcasts auf HZ. Upbeat: Die Startup-Serie • ...</t>
+  </si>
+  <si>
+    <t>https://www.handelszeitung.ch/podcasts/schone-neue-arbeitswelt/chefin-oder-chef-per-los-ist-das-fair</t>
+  </si>
+  <si>
+    <t>Wer schafft es bis ganz nach oben?
+In die Spitzenpositionen in Wirtschaft, Politik und Wissenschaft kommt man nicht allein durch Leistung.
+Ebenso spielen Zufall und Glück – und auch die soziale Herkunft eine grosse Rolle.</t>
+  </si>
+  <si>
+    <t>Corona: «Das Denken vor lauter Panik verkümmert ...</t>
+  </si>
+  <si>
+    <t>Infosperber</t>
+  </si>
+  <si>
+    <t>Februar fragte die Tagesschau des Schweizer Fernsehens Katja Rost, eine Soziologin der Universität Zürich, wie es zu erklären sei, dass die Proteste gegen ...</t>
+  </si>
+  <si>
+    <t>https://www.infosperber.ch/gesundheit/public-health/corona-das-denken-von-panik-verkuemmert/</t>
+  </si>
+  <si>
+    <t>Nämlich die Faktoren, die auf das Entstehen der öffentlichen Meinung einwirken: politische Macht, Interessengruppen und strukturelle Zwänge.
+Wenn das Denken «von Panik verkümmert» sei, so formulierte Walter Lippmann, dann hätten die Menschen auch Angst vor Ideen:«Die Leute hören auf, zu sagen, was sie denken; und wenn sie es nicht mehr sagen, dann hören sie auch bald auf, es zu denken.
+Von «irrsinniger Wut und Frustration» ist die Rede und der sprichwörtliche «harte Kern» von Hooligans und Rechtsextremen darf nicht fehlen.
+Wenn Russland und China Impfstoffe liefern, ist das Machtpolitik, sie wollen ihre «Einflussgebiete erweitern» und «den Westen abhängig machen» von der Achse des Bösen.
+Wenn dagegen Israel impfpolitische Zusammenarbeit anbietet, ist das ein Glück, weil Israel ein «Vorbild für die Welt ist» und weil Netanyahu sich als Weltmeister in Gesundheitspolitik erwiesen habe.</t>
+  </si>
+  <si>
+    <t>Öffnungsstrategie in Augustusburg in Sachsen: „Wir können ...</t>
+  </si>
+  <si>
+    <t>SUPERillu</t>
+  </si>
+  <si>
+    <t>Katja de With, Leiterin der Infektiologie am Uniklinikum Dresden. „Eine pfiffige Idee ist das”, findet sie. „Das Konzept ist etwas, das man auf jeden Fall ausprobieren ...</t>
+  </si>
+  <si>
+    <t>https://www.superillu.de/magazin/heimat/coronavirus/pilotprojekt-augustusburg-1446</t>
+  </si>
+  <si>
+    <t>Sonderweg Augustusburg: Das sagt der Bürgermeister „Wir müssen endlich wieder atmen können“, erklärt Bürgermeister Dirk Neubauer (SPD), 50.
+Ist das Ergebnis negativ, wird der Barcode drei Tage zur digitalen Eintrittskarte für Gastronomie und Geschäfte, unter Einhaltung der Hygienekonzepte.
+Über die Cookie-Einstellungen im Footer können Sie die aktivierten Funktionen wieder deaktivieren.
+Dass es richtig war, es zu wagen und „es sich lohnt, auszubrechen“, wie er sagt.
+„Was wäre das auch für ein starkes Signal ins Land: Wir können das - aus eigener Kraft.“</t>
+  </si>
+  <si>
+    <t>Aldi wirbt mit Murals mit klimapositiver Farbe für seine Oster ...</t>
+  </si>
+  <si>
+    <t>Turi2</t>
+  </si>
+  <si>
+    <t>Aldi grillt in seiner Osterkampagne trotz Verlängerung des Lockdowns an – immerhin liegen keine Hasenkeulen auf dem Rost, sondern Garnelen-Spieße und ...</t>
+  </si>
+  <si>
+    <t>https://www.turi2.de/aktuell/aldi-wirbt-mit-murals-mit-klimapositiver-farbe-fuer-seine-oster-produkte/</t>
+  </si>
+  <si>
+    <t>Aldi grillt in seiner Osterkampagne trotz Verlängerung des Lockdowns an – immerhin liegen keine Hasenkeulen auf dem Rost, sondern Garnelen-Spieße und Rindersteaks.
+Im TV-Spot zeigt der Discounter Menschen beim Grillen, beim Osterbrunch und beim Eiersuchen und bewirbt sein Ostersoriment mit Gourmet-, Fairtrade- und Bio-Produkten.
+Die Kampagne verantwortet nicht die Leadagentur McCann, sondern Zum goldenen Hirschen.
+Die Agentur setzt neben TV und Social Media auch auf Murals: Die Wandgemälde sind mit klimapositiver Farbe gemalt, 200 Quadratmeter Wandfläche haben laut Aldi denselben luftreinigenden Effekt wie 200 Bäume.
+horizont.net</t>
+  </si>
+  <si>
+    <t>Heute gibt es die Sportgala in der Bildergalerie | blick.de - Vogtland</t>
+  </si>
+  <si>
+    <t>Blick</t>
+  </si>
+  <si>
+    <t>2013: Eric Frenzel, Isabella Laböck, Frank Rost, Aljona Savchenko und Robin Szolkowy. 2014: Andrea Henkel, Mario Basler, Christina Obergföll, Boris Henry.</t>
+  </si>
+  <si>
+    <t>https://www.blick.de/vogtland/heute-gibt-es-die-sportgala-in-der-bildergalerie-artikel11415713</t>
+  </si>
+  <si>
+    <t>Der BLICK übernimmt heute den Spielball von der "Freien Presse" und Vogtland-Radio.
+Trotz Coronakrise haben die Initiatoren etwas auf die Beine gestellt.
+Und wir haben auch eine von Lutz Kölbel zusammengestellte Liste mit einem Auszug der Namen an Stargästen und Sportprominenten, die in Plauen und Markneukirchen die Ehrung der besten Vogtlandsportler vornahmen.
+Die erste gemeinsame, einheitliche Sportgala der damals noch zwei Kreissportbünde des Vogtlandes fand übrigens 1997 statt.
+Moderatorin Ulrike von der Groeben (RTL) hofft genau wie alle anderen Initiatoren, dass es eine Fortsetzung geben kann.</t>
+  </si>
+  <si>
+    <t>Hessen:Ministerpräsident verteidigt Corona-Strategie gegen Kritik</t>
+  </si>
+  <si>
+    <t>N-TV</t>
+  </si>
+  <si>
+    <t>... eins und zwei sowie Personen mit Vorerkrankungen durch den Rost fallen, weil die bislang vorgegebene Impfreihenfolge dann nicht mehr eingehalten werde.</t>
+  </si>
+  <si>
+    <t>https://www.n-tv.de/regionales/hessen/Ministerpraesident-verteidigt-Corona-Strategie-gegen-Kritik-article22429904.html</t>
+  </si>
+  <si>
+    <t>Der Regierungschef betonte das große Interesse der Landesregierung, die Corona-Impfungen in die Hände der niedergelassenen Ärzte und Betriebsärzte zu legen.
+Solange das nicht gewährleistet und nicht genügend Impfstoff vorhanden sei, werde man ohne die Impfzentren nicht auskommen.
+Bouffier versicherte, dass die Landesregierung wegen der Öffnung der Schulen reagieren werde, wenn die Inzidenzen landesweit über 100 steigen.
+Das bedeute Planbarkeit für die Schulen, den Erhalt von Arbeitsplätzen sowie Öffnungsperspektiven für den Einzelhandel und die Gastronomie.
+Wissler mahnte an, dass die Gelder an die von den Schließungen betroffenen Menschen schnell ausgezahlt werden müssten, um keine Existenzen zu gefährden.</t>
+  </si>
+  <si>
+    <t>Corona: Druck auf Luca-App nimmt zu</t>
+  </si>
+  <si>
+    <t>Nord24</t>
+  </si>
+  <si>
+    <t>Von Martin Rost. 9. April 2021 // 12:05 ... Martin Rost. zeige alle ... Katja Baake TOP-JOB Zahnmedizinische Fachangestellte (m/w/d) Bremerhaven. 03.04.2021 ...</t>
+  </si>
+  <si>
+    <t>https://www.nord24.de/Nachrichten/Corona-Druck-auf-Luca-App-nimmt-zu-58392.html</t>
+  </si>
+  <si>
+    <t>April): „War ganz schön was los gestern Nacht im Zoo Osnabrück.“ Über 100 Besucher sollen sich über die Luca-App in der Nacht von Dienstag auf Mittwoch im Zoo eingecheckt haben.
+Tatsächlich war der Zoo aber geschlossen – und die Luca-Nutzer irgendwo anders.
+Und genau das ist eine der Schwachstellen der App: Die QR-Codes können problemlos von überall und jederzeit eingelesen werden, sobald sie im Netz sind.
+Bei bisher mehr als drei Millionen Luca-Downloads und über 60.000 nutzbaren Standorten ein enormes Risiko-Potenzial.
+Welche Schwachstellen die App noch hat und was der Hamburger Datenschutzbeauftragte an ihr kritisiert, lest Ihr auf NORD|ERLESEN.</t>
+  </si>
+  <si>
+    <t>Lockerung der Corona-Massnahmen – Nützen oder schaden ...</t>
+  </si>
+  <si>
+    <t>Berner Zeitung</t>
+  </si>
+  <si>
+    <t>Deshalb ist es richtig, dass die Massnahmen gelockert werden.» Soziologin Katja Rost. Beklagt sich die Juso-Präsidentin zu Recht? Oder ist es vertretbar, Kinder ...</t>
+  </si>
+  <si>
+    <t>https://www.bernerzeitung.ch/nuetzen-oder-schaden-die-oeffnungen-den-jungen-785271281832</t>
+  </si>
+  <si>
+    <t>Lockerung der Corona-Massnahmen – Nützen oder schaden die Öffnungen den Jungen?
+Nicht nur die Jungparteien sind sich uneinig, ob es gerecht ist, mehr Infektionen in Kauf zu nehmen.
+Mit Jansens Aussage war die Diskussion unter den Jungparteien lanciert.
+Sie sagte: «Nur weil wir nicht direkt daran sterben, ist das Virus nicht ungefährlich für uns.» Auch junge Menschen könnten schwer an Covid erkranken und an Long Covid leiden.
+Matthias Müller, Präsident der Jungfreisinnigen, reagierte prompt und bezeichnete die Juso als Hypochonder.</t>
+  </si>
+  <si>
+    <t>Coronavirus: Soziologin befürchtet Lockerungsübermut</t>
+  </si>
+  <si>
+    <t>Nau</t>
+  </si>
+  <si>
+    <t>Aus soziologischer Sicht lässt sich an den Lockerungsschritten dagegen weniger aussetzen: Wirtschaftssoziologin Katja Rost sieht sie als «optimistisches ...</t>
+  </si>
+  <si>
+    <t>https://www.nau.ch/news/schweiz/coronavirus-soziologin-befurchtet-lockerungsubermut-65909279</t>
+  </si>
+  <si>
+    <t>Es könne schnell passieren, dass wir im Herbst wieder an demselben Punkt wie heute stehen würden.
+Das Problem beim Coronavirus sei ja leider, dass eine geringe Anzahl Regelbrecher ausreiche, um der Gemeinschaft maximalen Schaden zuzufügen.
+«Insofern sind kontinuierliche Kontrollen extrem wichtig, um zu überwachen, ob sich alle an die neuen Regeln halten.»</t>
+  </si>
+  <si>
+    <t>«Von Diskriminierung kann man nicht sprechen»</t>
+  </si>
+  <si>
+    <t>Bluewin</t>
+  </si>
+  <si>
+    <t>Soziologin Katja Rost erklärt, was bei solcher Kritik vergessen geht. Von Gil Bieler. 22.4.2021. Ob Konzert- oder Discobesuch: Im Sommer soll es gewisse ...</t>
+  </si>
+  <si>
+    <t>https://www.bluewin.ch/de/news/schweiz/privilegien-fuer-corona-geimpfte-von-diskriminierung-kann-man-da-nicht-sprechen-679711.html</t>
+  </si>
+  <si>
+    <t>Ich denke aber, dass man hier ohnehin nicht von Diskriminierung sprechen kann.
+Dann Leute auszuschliessen, die dies bewusst nicht tun wollen, obwohl sie die Möglichkeit dazu hätten, empfinde ich nicht als ungerecht.
+Aus diesem Grund haben wir auch das Rauchen in den Kneipen verboten, denn man schadet damit ja nicht nur sich selber.
+Da darf man sich nicht wundern, wenn niemand mit einem sprechen will.
+Die vernünftige Haltung wäre zu sagen: Auch wenn ich nicht an den Nutzen der Schutzmaske glaube, muss ich Rücksicht auf andere nehmen – ich kann nicht über deren Gesundheit bestimmen.</t>
+  </si>
+  <si>
+    <t>Die Horrorfamilie von nebenan: Was hilft gegen nervige Nachbaren?</t>
+  </si>
+  <si>
+    <t>... dass andere Menschen sich Freiräume nehmen, die wir uns, gerade jetzt, in der Pandemie, verbieten, sagt Katja Rost, Soziologin an der Universität Zürich.</t>
+  </si>
+  <si>
+    <t>https://www.tagblatt.ch/leben/grosses-streitpotenzial-immer-wieder-horror-nachbarn-in-den-schlagzeilen-was-hilft-wenn-die-gegenueber-nerven-ld.2128571</t>
+  </si>
+  <si>
+    <t>Grosses Streitpotenzial Immer wieder Horror-Nachbarn in den Schlagzeilen – was hilft, wenn die gegenüber nerven?
+Getty Ob wir wollen oder nicht, unsere Nachbarn sind uns am nächsten.
+Beziehungen mit ihnen können bereichernd sein, oft sind sie spannungs­geladen und herausfordernd.
+Exklusiv für AbonnentenEinen Nachbarn wie Ueli Anliker wünschen sich viele Menschen in Trimbach im Kanton Solothurn offenbar nicht.
+Der 63-jährige Selfmade-Millionär und Autotuner hat sich jüngst einen Glaspavillon für seine Motorräder gegönnt, in Form eines buddhistischen Tempels, und das hat mindestens 20 Nachbarn dazu bewogen, Beschwerde anzumelden.</t>
+  </si>
+  <si>
+    <t>Die regionalen Mumm Weine: Genussvolle Begleiter für einen ...</t>
+  </si>
+  <si>
+    <t>Berliner Sonntagsblatt</t>
+  </si>
+  <si>
+    <t>Die renommierte Mumm Weinexpertin Katja Apelt gibt die besten Tipps für ... Bei ungeübten Griller*innen kann am Rost schon einiges schiefgehen, doch auch ...</t>
+  </si>
+  <si>
+    <t>https://www.berliner-sonntagsblatt.de/Die-regionalen-Mumm-Weine-Genussvolle-Begleiter-fuer-einen-sommerlichen-Grillabend--229102.html</t>
+  </si>
+  <si>
+    <t>- Deutschland/WeltArbeitsminister legt Entwurf für höhere Löhne in Altenpflege vor Arbeitsminister legt Entwurf für höhere Löhne in Altenpflege vor über dts NachrichtenagenturDeutschland/Welt : - Bundesarbeitsminister Hubertus Heil (SPD) will die Löhne von Altenpflegern in Deutschland per Gesetz erhöhen und Tarifgehälter zur Pflicht machen.
+"Der Gesundheitsminister hat bisher keine konkrete Lösung vorgelegt, aber die Zeit drängt", sagte er der "Bild am Sonntag".
+Der Gesetzentwurf, den Heil am Freitag zur Beratung innerhalb der Bundesregierung verschickte, sieht Tariflöhne als Bedingung für Abrechnungen mit der Pflegeversicherung vor.
+Heil begründete seinen Vorstoß mit einem Verweis auf den Koalitionsvertrag, der bessere Löhne vorsehe: "Wir müssen Wort halten."
+Heil erläuterte seinen Gesetzentwurf in einem Brief an Spahn, über den die "Bild am Sonntag" berichtet.</t>
+  </si>
+  <si>
+    <t>Die besten Elektrogrills fürs Grillen daheim von Tefal, Weber und Co.</t>
+  </si>
+  <si>
+    <t>Von Katja Schmidt ... Die Reinigung nach dem Grillen ist ebenfalls einfach: Kugel und Rost sind porzellanemailliert und damit fettabweisend. So läuft das Fett ...</t>
+  </si>
+  <si>
+    <t>https://www.t-online.de/ratgeber/id_89871376/die-besten-elektrogrills-fuers-grillen-daheim-von-tefal-weber-und-co-.html</t>
+  </si>
+  <si>
+    <t>Wir haben für Sie recherchiert und zeigen die besten Elektrogrills von Tefal, Weber und Co.Mit einem elektrischen Grill können Sie selbst in Mietwohnungen problemlos grillen, wann Sie möchten, ohne die Nachbarn zu stören.
+Die Grillplatte und die Auffangschale können entnommen und im Geschirrspüler gereinigt werden.
+Besonders effektiv ist der Kugelgrill durch das Trichtersystem und die reflektierende Folie im Deckel, die für eine gleichmäßige Hitzeverteilung sorgen.
+Ein Blick auf die Leistung und auf die Möglichkeiten zur Hitzeregulierung lohnt sich im Hinblick auf die Aufheizzeit und Gargeschwindigkeit.
+Unbedingt dabei sein sollte eine Fettauffangschale, die die Reinigung des Elektrogrills sehr erleichtert.</t>
+  </si>
+  <si>
+    <t>Corona-Demos - «Shipi» fordert Ausländer auf, sich den Corona-Demos anzuschliessen</t>
+  </si>
+  <si>
+    <t>«Keine alltäglichen Berührungspunkte». «In diesen Demonstrationen stecken sehr viel Emotionen», sagt Soziologin Katja Rost. Hinter der Massnahmen-Kritik ...</t>
+  </si>
+  <si>
+    <t>https://www.20min.ch/story/shipi-fordert-auslaender-auf-sich-den-corona-demos-anzuschliessen-655717124727</t>
+  </si>
+  <si>
+    <t>Darum gehts Ein Video eines Corona-Massnahmen-Gegners, der sich «Shipi» nennt, kursiert derzeit auf Facebook und Telegram.
+«Shipi» fordert darin Ausländer auf sich den Schweizern an den Demos anzuschliessen.
+Auf Telegram und auf Facebook kursiert derzeit ein Video von einem Corona-Massnahmen-Skeptiker, der sich selbst «Shipi» nennt.
+In einem vierminütigen Video richtet sich «Shipi» an «Albaner, Türken, Araber und Dunkelhäutige» und fordert, dass diese sich den Demos gegen die Corona-Massnahmen des Bundes anschliessen.
+«Unser Feind ist nicht die Regierung, aber die Diktatur, die dahinter steht», sagt «Shipi» in seinem Video weiter.</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>"Wenn du nicht mehr streitest, dann hast du deine eigene ...</t>
+  </si>
+  <si>
+    <t>Kulturmagazin frachtwerk</t>
+  </si>
+  <si>
+    <t>Dort anwesend sein wird die Soziologin Katja Rost, der Leiter der Akutmedizin des Universitätsspitals Genf, Martin Tramèr, Coronamassnahmengegner*innen ...</t>
+  </si>
+  <si>
+    <t>https://www.frachtwerk.ch/2021/05/07/wenn-du-nicht-mehr-streitest-dann-hast-du-deine-meinung-begraben/</t>
+  </si>
+  <si>
+    <t>Nebst dieser politischen Dimension gibt es auch die persönliche Dimension von Streit, die wir alle aus dem Alltag kennen.
+Ich habe das Gefühl, dass es nicht «die» Lösung gibt, um Uneinigkeiten auszutragen, sondern es ist sehr situations- und personenabhängig.
+Dann gibt es auch die andere Form von Streit, die ich nicht als konstruktiv bezeichnen würde.
+Nun ist es ja so, dass Kontaktsport immer noch nicht erlaubt ist und wir mussten da ein bisschen umkrempeln.
+Ein neues Bild von Konfrontation und Gegner*innenschaft erschaffen, das ist etwas, das ich wichtig finde und an diesem Abend gut funktioniert hat.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,15 +717,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,6 +754,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -238,24 +773,48 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +888,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +940,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +1133,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="66" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,178 +1161,812 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8">
+        <v>44214</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D7" s="8">
+        <v>44223</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44229</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="D9" s="5">
+        <v>44237</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="F9" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44240</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44230</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44230</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44239</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44241</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="8">
+        <v>44243</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="8">
+        <v>44245</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="8">
+        <v>44242</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44251</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="8">
+        <v>44245</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44266</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="8">
+        <v>44257</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="8">
+        <v>44258</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44299.454791666663</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="5">
+        <v>44299.454791666663</v>
+      </c>
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44299.454791666663</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="5">
+        <v>44299.454791666663</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44299.454791666663</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="5">
+        <v>44302</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="5">
+        <v>44299.455034722225</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="5">
+        <v>44315.455185185187</v>
+      </c>
+      <c r="E30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44308.455185185187</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44308.455185185187</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44308.455185185187</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="5">
+        <v>44315.455185185187</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="5">
+        <v>44308.455185185187</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="5">
+        <v>44327.455416666664</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="5">
+        <v>44324.455413837277</v>
+      </c>
+      <c r="E37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{30D9DD92-701B-45D2-A319-2D36468F0654}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{97848F88-EEAA-4B92-B8D3-39D883914657}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{DDB0E727-4C39-4E68-B9ED-FD7EC6B194B0}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{8DA6F9CA-B351-426A-BB03-C129CE1C2C37}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{631C81AF-E608-4376-A98C-C3EA85C102FE}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{286ADAB9-5D4D-4E8C-ADC1-EBBA30118DF7}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{7F7E26CF-C5FF-4262-89C7-BCAEA546F828}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{9D091F5A-001D-4EE5-80C2-3ED3AF2B7164}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{9B040F8C-A183-47E8-ACAA-3E774C7791E8}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{DB06EE90-C1BF-4153-B828-0BE419249314}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{417D8670-9F16-4397-90CD-1EF266A1ACA9}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{8D0BBAE4-B8A4-4BF4-AC45-D85703BAA855}"/>
+    <hyperlink ref="F37" r:id="rId19" xr:uid="{6DF390C7-223C-42FA-B0EC-138D85665375}"/>
+    <hyperlink ref="F20" r:id="rId20" xr:uid="{63148F70-6819-445A-90CB-B787D2460C73}"/>
+    <hyperlink ref="F21" r:id="rId21" xr:uid="{6740A70F-1D44-493F-AD3E-B5D1A1E03482}"/>
+    <hyperlink ref="F22" r:id="rId22" xr:uid="{CE0C4372-7C7A-44DF-9BB6-A8806FD5334F}"/>
+    <hyperlink ref="F23" r:id="rId23" xr:uid="{0436CB38-CF74-4071-B673-CD388A1430B8}"/>
+    <hyperlink ref="F24" r:id="rId24" xr:uid="{12B66AAE-CBBF-4A94-89AB-78CB66C9673D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
 </worksheet>
 </file>